--- a/programs/price/готовые прайсы/categories.xlsx
+++ b/programs/price/готовые прайсы/categories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="16935" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="16935" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -552,18 +552,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -991,7 +991,7 @@
         <v>10201000</v>
       </c>
       <c r="B11">
-        <v>10200000</v>
+        <v>200000</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
@@ -1031,7 +1031,7 @@
         <v>10300000</v>
       </c>
       <c r="B12">
-        <v>10200000</v>
+        <v>10000000</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
@@ -1153,11 +1153,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD39"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
